--- a/Gabari/gabari.xlsx
+++ b/Gabari/gabari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFDE331-CEF1-46F0-8D55-E85BB4A25420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="لرستان" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1178,6 +1179,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1213,6 +1231,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1388,21 +1423,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1413,7 +1448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>MAX([1]لرستان!Z58:AG69,[1]لرستان!D58:J76)</f>
         <v>4700</v>
@@ -1425,7 +1460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +1472,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>[1]لرستان!D58</f>
         <v>4700</v>
@@ -1479,7 +1514,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>[1]لرستان!D59</f>
         <v>4600</v>
@@ -1501,7 +1536,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>[1]لرستان!D60</f>
         <v>4500</v>
@@ -1523,7 +1558,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>[1]لرستان!D61</f>
         <v>4400</v>
@@ -1545,7 +1580,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>[1]لرستان!D62</f>
         <v>4300</v>
@@ -1567,7 +1602,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>[1]لرستان!D63</f>
         <v>4200</v>
@@ -1589,7 +1624,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>[1]لرستان!D64</f>
         <v>4100</v>
@@ -1611,7 +1646,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>[1]لرستان!D65</f>
         <v>4000</v>
@@ -1633,7 +1668,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>[1]لرستان!D66</f>
         <v>3900</v>
@@ -1655,7 +1690,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>[1]لرستان!D67</f>
         <v>3800</v>
@@ -1677,7 +1712,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f>[1]لرستان!D68</f>
         <v>3700</v>
@@ -1699,7 +1734,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>[1]لرستان!D69</f>
         <v>3600</v>
@@ -1721,7 +1756,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>[1]لرستان!D70</f>
         <v>3500</v>
@@ -1743,7 +1778,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>[1]لرستان!D71</f>
         <v>3400</v>
@@ -1765,7 +1800,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f>[1]لرستان!D72</f>
         <v>3300</v>
@@ -1787,7 +1822,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f>[1]لرستان!D73</f>
         <v>3200</v>
@@ -1799,7 +1834,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>[1]لرستان!D74</f>
         <v>3100</v>
@@ -1811,7 +1846,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f>[1]لرستان!D75</f>
         <v>3050</v>
@@ -1823,7 +1858,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f>[1]لرستان!D76</f>
         <v>1120</v>
@@ -1835,7 +1870,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f>[1]لرستان!D77</f>
         <v>1120</v>
@@ -1847,7 +1882,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f>[1]لرستان!D78</f>
         <v>760</v>
@@ -1859,7 +1894,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f>[1]لرستان!D79</f>
         <v>760</v>
@@ -1871,7 +1906,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f>[1]لرستان!D80</f>
         <v>380</v>
@@ -1883,7 +1918,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f>[1]لرستان!D81</f>
         <v>380</v>
@@ -1895,7 +1930,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f>[1]لرستان!D82</f>
         <v>0</v>
@@ -1918,21 +1953,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1943,7 +1978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>MAX([2]شمال!Z58:AG69,[2]شمال!D58:J76)</f>
         <v>4600</v>
@@ -1955,7 +1990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +2002,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1987,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>[2]شمال!D58</f>
         <v>4600</v>
@@ -2009,7 +2044,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>[2]شمال!D59</f>
         <v>4500</v>
@@ -2031,7 +2066,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>[2]شمال!D60</f>
         <v>4400</v>
@@ -2053,7 +2088,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>[2]شمال!D61</f>
         <v>4300</v>
@@ -2075,7 +2110,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>[2]شمال!D62</f>
         <v>4200</v>
@@ -2097,7 +2132,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f>[2]شمال!D63</f>
         <v>4100</v>
@@ -2119,7 +2154,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f>[2]شمال!D64</f>
         <v>4000</v>
@@ -2141,7 +2176,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f>[2]شمال!D65</f>
         <v>3900</v>
@@ -2163,7 +2198,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>[2]شمال!D66</f>
         <v>3800</v>
@@ -2185,7 +2220,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>[2]شمال!D67</f>
         <v>3700</v>
@@ -2207,7 +2242,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f>[2]شمال!D68</f>
         <v>3600</v>
@@ -2229,7 +2264,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>[2]شمال!D69</f>
         <v>3500</v>
@@ -2251,7 +2286,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>[2]شمال!D70</f>
         <v>3400</v>
@@ -2273,7 +2308,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>[2]شمال!D71</f>
         <v>3300</v>
@@ -2295,7 +2330,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f>[2]شمال!D72</f>
         <v>3200</v>
@@ -2317,7 +2352,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>[2]شمال!D73</f>
         <v>3100</v>
@@ -2329,7 +2364,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f>[2]شمال!D74</f>
         <v>3050</v>
@@ -2341,7 +2376,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>[2]شمال!D75</f>
         <v>1120</v>
@@ -2353,7 +2388,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f>[2]شمال!D76</f>
         <v>1120</v>
@@ -2365,7 +2400,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>[2]شمال!D77</f>
         <v>760</v>
@@ -2377,7 +2412,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f>[2]شمال!D78</f>
         <v>760</v>
@@ -2389,7 +2424,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>[2]شمال!D79</f>
         <v>380</v>
@@ -2401,7 +2436,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>[2]شمال!D80</f>
         <v>380</v>
@@ -2413,7 +2448,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>[2]شمال!D81</f>
         <v>0</v>
@@ -2436,21 +2471,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2461,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>MAX([3]آذربايجان!Z58:AG69,[3]آذربايجان!D59:J90)</f>
         <v>4900</v>
@@ -2473,7 +2508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2485,7 +2520,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2505,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>[3]آذربايجان!D59</f>
         <v>4900</v>
@@ -2527,7 +2562,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>[3]آذربايجان!D60</f>
         <v>4800</v>
@@ -2549,7 +2584,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>[3]آذربايجان!D61</f>
         <v>4700</v>
@@ -2571,7 +2606,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>[3]آذربايجان!D62</f>
         <v>4600</v>
@@ -2593,7 +2628,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>[3]آذربايجان!D63</f>
         <v>4500</v>
@@ -2615,7 +2650,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f>[3]آذربايجان!D64</f>
         <v>4400</v>
@@ -2637,7 +2672,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f>[3]آذربايجان!D65</f>
         <v>4300</v>
@@ -2659,7 +2694,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f>[3]آذربايجان!D66</f>
         <v>4200</v>
@@ -2681,7 +2716,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>[3]آذربايجان!D67</f>
         <v>4100</v>
@@ -2703,7 +2738,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>[3]آذربايجان!D68</f>
         <v>4000</v>
@@ -2725,7 +2760,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f>[3]آذربايجان!D69</f>
         <v>3900</v>
@@ -2747,7 +2782,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>[3]آذربايجان!D70</f>
         <v>3800</v>
@@ -2769,7 +2804,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>[3]آذربايجان!D71</f>
         <v>3700</v>
@@ -2791,7 +2826,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>[3]آذربايجان!D72</f>
         <v>3600</v>
@@ -2813,7 +2848,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f>[3]آذربايجان!D73</f>
         <v>3500</v>
@@ -2835,7 +2870,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>[3]آذربايجان!D74</f>
         <v>3400</v>
@@ -2847,7 +2882,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f>[3]آذربايجان!D75</f>
         <v>3300</v>
@@ -2859,7 +2894,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>[3]آذربايجان!D76</f>
         <v>3200</v>
@@ -2871,7 +2906,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f>[3]آذربايجان!D77</f>
         <v>3150</v>
@@ -2883,7 +2918,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>[3]آذربايجان!D78</f>
         <v>1200</v>
@@ -2895,7 +2930,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f>[3]آذربايجان!D79</f>
         <v>1200</v>
@@ -2907,7 +2942,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>380</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>[3]آذربايجان!D81</f>
         <v>0</v>
@@ -2941,22 +2976,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2967,7 +3002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <f>MAX('[4]سرخس - تهران'!Z58:AG69,'[4]سرخس - تهران'!D61:J90)</f>
         <v>5200</v>
@@ -2979,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2991,7 +3026,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3011,7 +3046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <f>'[4]سرخس - تهران'!D62</f>
         <v>5200</v>
@@ -3033,7 +3068,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <f>'[4]سرخس - تهران'!D63</f>
         <v>5100</v>
@@ -3055,7 +3090,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <f>'[4]سرخس - تهران'!D64</f>
         <v>5000</v>
@@ -3077,7 +3112,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <f>'[4]سرخس - تهران'!D65</f>
         <v>4900</v>
@@ -3099,7 +3134,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <f>'[4]سرخس - تهران'!D66</f>
         <v>4800</v>
@@ -3121,7 +3156,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <f>'[4]سرخس - تهران'!D67</f>
         <v>4700</v>
@@ -3143,7 +3178,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <f>'[4]سرخس - تهران'!D68</f>
         <v>4600</v>
@@ -3165,7 +3200,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <f>'[4]سرخس - تهران'!D69</f>
         <v>4500</v>
@@ -3187,7 +3222,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f>'[4]سرخس - تهران'!D70</f>
         <v>4400</v>
@@ -3209,7 +3244,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <f>'[4]سرخس - تهران'!D71</f>
         <v>4300</v>
@@ -3231,7 +3266,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <f>'[4]سرخس - تهران'!D72</f>
         <v>4200</v>
@@ -3253,7 +3288,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <f>'[4]سرخس - تهران'!D73</f>
         <v>4100</v>
@@ -3275,7 +3310,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <f>'[4]سرخس - تهران'!D74</f>
         <v>4000</v>
@@ -3297,7 +3332,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f>'[4]سرخس - تهران'!D75</f>
         <v>3900</v>
@@ -3319,7 +3354,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <f>'[4]سرخس - تهران'!D76</f>
         <v>3800</v>
@@ -3341,7 +3376,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <f>'[4]سرخس - تهران'!D77</f>
         <v>3700</v>
@@ -3353,7 +3388,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f>'[4]سرخس - تهران'!D78</f>
         <v>3600</v>
@@ -3365,7 +3400,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>'[4]سرخس - تهران'!D79</f>
         <v>3500</v>
@@ -3377,7 +3412,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f>'[4]سرخس - تهران'!D80</f>
         <v>3450</v>
@@ -3389,7 +3424,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>'[4]سرخس - تهران'!D81</f>
         <v>1120</v>
@@ -3401,7 +3436,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <f>'[4]سرخس - تهران'!D82</f>
         <v>1120</v>
@@ -3413,7 +3448,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>'[4]سرخس - تهران'!D83</f>
         <v>760</v>
@@ -3425,7 +3460,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>'[4]سرخس - تهران'!D84</f>
         <v>760</v>
@@ -3437,7 +3472,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>'[4]سرخس - تهران'!D85</f>
         <v>380</v>
@@ -3449,7 +3484,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f>'[4]سرخس - تهران'!D86</f>
         <v>380</v>
@@ -3461,7 +3496,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f>'[4]سرخس - تهران'!D87</f>
         <v>0</v>
@@ -3484,22 +3519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="3"/>
+    <col min="4" max="7" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <f>MAX('[5]بندر- شوراب'!Z58:AG69,'[5]بندر- شوراب'!D64:J89)</f>
         <v>5400</v>
@@ -3522,7 +3557,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3534,7 +3569,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3554,7 +3589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <f>'[5]بندر- شوراب'!D64</f>
         <v>5400</v>
@@ -3576,7 +3611,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <f>'[5]بندر- شوراب'!D65</f>
         <v>5300</v>
@@ -3598,7 +3633,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <f>'[5]بندر- شوراب'!D66</f>
         <v>5200</v>
@@ -3620,7 +3655,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <f>'[5]بندر- شوراب'!D67</f>
         <v>5100</v>
@@ -3642,7 +3677,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <f>'[5]بندر- شوراب'!D68</f>
         <v>5000</v>
@@ -3664,7 +3699,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <f>'[5]بندر- شوراب'!D69</f>
         <v>4900</v>
@@ -3686,7 +3721,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <f>'[5]بندر- شوراب'!D70</f>
         <v>4800</v>
@@ -3708,7 +3743,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <f>'[5]بندر- شوراب'!D71</f>
         <v>4700</v>
@@ -3730,7 +3765,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <f>'[5]بندر- شوراب'!D72</f>
         <v>4600</v>
@@ -3752,7 +3787,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <f>'[5]بندر- شوراب'!D73</f>
         <v>4500</v>
@@ -3774,7 +3809,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <f>'[5]بندر- شوراب'!D74</f>
         <v>4400</v>
@@ -3796,7 +3831,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <f>'[5]بندر- شوراب'!D75</f>
         <v>4300</v>
@@ -3818,7 +3853,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <f>'[5]بندر- شوراب'!D76</f>
         <v>4200</v>
@@ -3840,7 +3875,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <f>'[5]بندر- شوراب'!D77</f>
         <v>4100</v>
@@ -3862,7 +3897,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <f>'[5]بندر- شوراب'!D78</f>
         <v>4000</v>
@@ -3884,7 +3919,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <f>'[5]بندر- شوراب'!D79</f>
         <v>3900</v>
@@ -3896,7 +3931,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <f>'[5]بندر- شوراب'!D80</f>
         <v>3800</v>
@@ -3908,7 +3943,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <f>'[5]بندر- شوراب'!D81</f>
         <v>3700</v>
@@ -3920,7 +3955,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <f>'[5]بندر- شوراب'!D82</f>
         <v>3600</v>
@@ -3932,7 +3967,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <f>'[5]بندر- شوراب'!D83</f>
         <v>1120</v>
@@ -3944,7 +3979,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <f>'[5]بندر- شوراب'!D84</f>
         <v>1120</v>
@@ -3956,7 +3991,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <f>'[5]بندر- شوراب'!D85</f>
         <v>760</v>
@@ -3968,7 +4003,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <f>'[5]بندر- شوراب'!D86</f>
         <v>760</v>
@@ -3980,7 +4015,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <f>'[5]بندر- شوراب'!D87</f>
         <v>380</v>
@@ -3992,7 +4027,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <f>'[5]بندر- شوراب'!D88</f>
         <v>380</v>
@@ -4004,7 +4039,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <f>'[5]بندر- شوراب'!D89</f>
         <v>0</v>

--- a/Gabari/gabari.xlsx
+++ b/Gabari/gabari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFDE331-CEF1-46F0-8D55-E85BB4A25420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="لرستان" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -78,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1179,23 +1178,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1231,23 +1213,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1423,21 +1388,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="1"/>
+    <col min="1" max="1" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -1448,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>MAX([1]لرستان!Z58:AG69,[1]لرستان!D58:J76)</f>
         <v>4700</v>
@@ -1460,7 +1425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1437,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f>[1]لرستان!D58</f>
         <v>4700</v>
@@ -1514,7 +1479,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f>[1]لرستان!D59</f>
         <v>4600</v>
@@ -1536,7 +1501,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>[1]لرستان!D60</f>
         <v>4500</v>
@@ -1558,7 +1523,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f>[1]لرستان!D61</f>
         <v>4400</v>
@@ -1580,7 +1545,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>[1]لرستان!D62</f>
         <v>4300</v>
@@ -1602,7 +1567,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>[1]لرستان!D63</f>
         <v>4200</v>
@@ -1624,7 +1589,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>[1]لرستان!D64</f>
         <v>4100</v>
@@ -1646,7 +1611,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f>[1]لرستان!D65</f>
         <v>4000</v>
@@ -1668,7 +1633,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>[1]لرستان!D66</f>
         <v>3900</v>
@@ -1690,7 +1655,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>[1]لرستان!D67</f>
         <v>3800</v>
@@ -1712,7 +1677,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f>[1]لرستان!D68</f>
         <v>3700</v>
@@ -1734,7 +1699,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>[1]لرستان!D69</f>
         <v>3600</v>
@@ -1756,7 +1721,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>[1]لرستان!D70</f>
         <v>3500</v>
@@ -1778,7 +1743,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>[1]لرستان!D71</f>
         <v>3400</v>
@@ -1800,7 +1765,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f>[1]لرستان!D72</f>
         <v>3300</v>
@@ -1822,7 +1787,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>[1]لرستان!D73</f>
         <v>3200</v>
@@ -1834,7 +1799,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>[1]لرستان!D74</f>
         <v>3100</v>
@@ -1846,7 +1811,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f>[1]لرستان!D75</f>
         <v>3050</v>
@@ -1858,7 +1823,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>[1]لرستان!D76</f>
         <v>1120</v>
@@ -1870,7 +1835,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>[1]لرستان!D77</f>
         <v>1120</v>
@@ -1882,7 +1847,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>[1]لرستان!D78</f>
         <v>760</v>
@@ -1894,7 +1859,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f>[1]لرستان!D79</f>
         <v>760</v>
@@ -1906,7 +1871,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f>[1]لرستان!D80</f>
         <v>380</v>
@@ -1918,7 +1883,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f>[1]لرستان!D81</f>
         <v>380</v>
@@ -1930,7 +1895,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>[1]لرستان!D82</f>
         <v>0</v>
@@ -1953,21 +1918,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1978,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>MAX([2]شمال!Z58:AG69,[2]شمال!D58:J76)</f>
         <v>4600</v>
@@ -1990,7 +1955,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2002,7 +1967,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2022,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[2]شمال!D58</f>
         <v>4600</v>
@@ -2044,7 +2009,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[2]شمال!D59</f>
         <v>4500</v>
@@ -2066,7 +2031,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[2]شمال!D60</f>
         <v>4400</v>
@@ -2088,7 +2053,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[2]شمال!D61</f>
         <v>4300</v>
@@ -2110,7 +2075,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[2]شمال!D62</f>
         <v>4200</v>
@@ -2132,7 +2097,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[2]شمال!D63</f>
         <v>4100</v>
@@ -2154,7 +2119,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[2]شمال!D64</f>
         <v>4000</v>
@@ -2176,7 +2141,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[2]شمال!D65</f>
         <v>3900</v>
@@ -2198,7 +2163,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[2]شمال!D66</f>
         <v>3800</v>
@@ -2220,7 +2185,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[2]شمال!D67</f>
         <v>3700</v>
@@ -2242,7 +2207,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[2]شمال!D68</f>
         <v>3600</v>
@@ -2264,7 +2229,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[2]شمال!D69</f>
         <v>3500</v>
@@ -2286,7 +2251,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[2]شمال!D70</f>
         <v>3400</v>
@@ -2308,7 +2273,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[2]شمال!D71</f>
         <v>3300</v>
@@ -2330,7 +2295,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[2]شمال!D72</f>
         <v>3200</v>
@@ -2352,7 +2317,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[2]شمال!D73</f>
         <v>3100</v>
@@ -2364,7 +2329,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[2]شمال!D74</f>
         <v>3050</v>
@@ -2376,7 +2341,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[2]شمال!D75</f>
         <v>1120</v>
@@ -2388,7 +2353,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[2]شمال!D76</f>
         <v>1120</v>
@@ -2400,7 +2365,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[2]شمال!D77</f>
         <v>760</v>
@@ -2412,7 +2377,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[2]شمال!D78</f>
         <v>760</v>
@@ -2424,7 +2389,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>[2]شمال!D79</f>
         <v>380</v>
@@ -2436,7 +2401,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[2]شمال!D80</f>
         <v>380</v>
@@ -2448,7 +2413,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>[2]شمال!D81</f>
         <v>0</v>
@@ -2471,21 +2436,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>MAX([3]آذربايجان!Z58:AG69,[3]آذربايجان!D59:J90)</f>
         <v>4900</v>
@@ -2508,7 +2473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -2520,7 +2485,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -2540,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>[3]آذربايجان!D59</f>
         <v>4900</v>
@@ -2562,7 +2527,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>[3]آذربايجان!D60</f>
         <v>4800</v>
@@ -2584,7 +2549,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>[3]آذربايجان!D61</f>
         <v>4700</v>
@@ -2606,7 +2571,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>[3]آذربايجان!D62</f>
         <v>4600</v>
@@ -2628,7 +2593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>[3]آذربايجان!D63</f>
         <v>4500</v>
@@ -2650,7 +2615,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>[3]آذربايجان!D64</f>
         <v>4400</v>
@@ -2672,7 +2637,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>[3]آذربايجان!D65</f>
         <v>4300</v>
@@ -2694,7 +2659,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>[3]آذربايجان!D66</f>
         <v>4200</v>
@@ -2716,7 +2681,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>[3]آذربايجان!D67</f>
         <v>4100</v>
@@ -2738,7 +2703,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>[3]آذربايجان!D68</f>
         <v>4000</v>
@@ -2760,7 +2725,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>[3]آذربايجان!D69</f>
         <v>3900</v>
@@ -2782,7 +2747,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>[3]آذربايجان!D70</f>
         <v>3800</v>
@@ -2804,7 +2769,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>[3]آذربايجان!D71</f>
         <v>3700</v>
@@ -2826,7 +2791,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>[3]آذربايجان!D72</f>
         <v>3600</v>
@@ -2848,7 +2813,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>[3]آذربايجان!D73</f>
         <v>3500</v>
@@ -2870,7 +2835,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>[3]آذربايجان!D74</f>
         <v>3400</v>
@@ -2882,7 +2847,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>[3]آذربايجان!D75</f>
         <v>3300</v>
@@ -2894,7 +2859,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>[3]آذربايجان!D76</f>
         <v>3200</v>
@@ -2906,7 +2871,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>[3]آذربايجان!D77</f>
         <v>3150</v>
@@ -2918,7 +2883,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>[3]آذربايجان!D78</f>
         <v>1200</v>
@@ -2930,7 +2895,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>[3]آذربايجان!D79</f>
         <v>1200</v>
@@ -2942,7 +2907,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>380</v>
       </c>
@@ -2953,7 +2918,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>[3]آذربايجان!D81</f>
         <v>0</v>
@@ -2976,22 +2941,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.109375" style="2"/>
+    <col min="1" max="1" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3002,7 +2967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>MAX('[4]سرخس - تهران'!Z58:AG69,'[4]سرخس - تهران'!D61:J90)</f>
         <v>5200</v>
@@ -3014,7 +2979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3026,7 +2991,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -3046,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f>'[4]سرخس - تهران'!D62</f>
         <v>5200</v>
@@ -3068,7 +3033,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f>'[4]سرخس - تهران'!D63</f>
         <v>5100</v>
@@ -3090,7 +3055,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>'[4]سرخس - تهران'!D64</f>
         <v>5000</v>
@@ -3112,7 +3077,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>'[4]سرخس - تهران'!D65</f>
         <v>4900</v>
@@ -3134,7 +3099,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f>'[4]سرخس - تهران'!D66</f>
         <v>4800</v>
@@ -3156,7 +3121,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f>'[4]سرخس - تهران'!D67</f>
         <v>4700</v>
@@ -3178,7 +3143,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f>'[4]سرخس - تهران'!D68</f>
         <v>4600</v>
@@ -3200,7 +3165,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f>'[4]سرخس - تهران'!D69</f>
         <v>4500</v>
@@ -3222,7 +3187,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f>'[4]سرخس - تهران'!D70</f>
         <v>4400</v>
@@ -3244,7 +3209,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f>'[4]سرخس - تهران'!D71</f>
         <v>4300</v>
@@ -3266,7 +3231,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>'[4]سرخس - تهران'!D72</f>
         <v>4200</v>
@@ -3288,7 +3253,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f>'[4]سرخس - تهران'!D73</f>
         <v>4100</v>
@@ -3310,7 +3275,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f>'[4]سرخس - تهران'!D74</f>
         <v>4000</v>
@@ -3332,7 +3297,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>'[4]سرخس - تهران'!D75</f>
         <v>3900</v>
@@ -3354,7 +3319,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f>'[4]سرخس - تهران'!D76</f>
         <v>3800</v>
@@ -3376,7 +3341,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f>'[4]سرخس - تهران'!D77</f>
         <v>3700</v>
@@ -3388,7 +3353,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f>'[4]سرخس - تهران'!D78</f>
         <v>3600</v>
@@ -3400,7 +3365,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>'[4]سرخس - تهران'!D79</f>
         <v>3500</v>
@@ -3412,7 +3377,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f>'[4]سرخس - تهران'!D80</f>
         <v>3450</v>
@@ -3424,7 +3389,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f>'[4]سرخس - تهران'!D81</f>
         <v>1120</v>
@@ -3436,7 +3401,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f>'[4]سرخس - تهران'!D82</f>
         <v>1120</v>
@@ -3448,7 +3413,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>'[4]سرخس - تهران'!D83</f>
         <v>760</v>
@@ -3460,7 +3425,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f>'[4]سرخس - تهران'!D84</f>
         <v>760</v>
@@ -3472,7 +3437,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f>'[4]سرخس - تهران'!D85</f>
         <v>380</v>
@@ -3484,7 +3449,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f>'[4]سرخس - تهران'!D86</f>
         <v>380</v>
@@ -3496,7 +3461,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f>'[4]سرخس - تهران'!D87</f>
         <v>0</v>
@@ -3519,22 +3484,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.109375" style="3"/>
+    <col min="4" max="7" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -3545,7 +3510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>MAX('[5]بندر- شوراب'!Z58:AG69,'[5]بندر- شوراب'!D64:J89)</f>
         <v>5400</v>
@@ -3557,7 +3522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -3569,7 +3534,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -3589,7 +3554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f>'[5]بندر- شوراب'!D64</f>
         <v>5400</v>
@@ -3611,7 +3576,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>'[5]بندر- شوراب'!D65</f>
         <v>5300</v>
@@ -3633,7 +3598,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>'[5]بندر- شوراب'!D66</f>
         <v>5200</v>
@@ -3655,7 +3620,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f>'[5]بندر- شوراب'!D67</f>
         <v>5100</v>
@@ -3677,7 +3642,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f>'[5]بندر- شوراب'!D68</f>
         <v>5000</v>
@@ -3699,7 +3664,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f>'[5]بندر- شوراب'!D69</f>
         <v>4900</v>
@@ -3721,7 +3686,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>'[5]بندر- شوراب'!D70</f>
         <v>4800</v>
@@ -3743,7 +3708,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f>'[5]بندر- شوراب'!D71</f>
         <v>4700</v>
@@ -3765,7 +3730,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f>'[5]بندر- شوراب'!D72</f>
         <v>4600</v>
@@ -3787,7 +3752,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f>'[5]بندر- شوراب'!D73</f>
         <v>4500</v>
@@ -3809,7 +3774,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>'[5]بندر- شوراب'!D74</f>
         <v>4400</v>
@@ -3831,7 +3796,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f>'[5]بندر- شوراب'!D75</f>
         <v>4300</v>
@@ -3853,7 +3818,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f>'[5]بندر- شوراب'!D76</f>
         <v>4200</v>
@@ -3875,7 +3840,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f>'[5]بندر- شوراب'!D77</f>
         <v>4100</v>
@@ -3897,7 +3862,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f>'[5]بندر- شوراب'!D78</f>
         <v>4000</v>
@@ -3919,7 +3884,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f>'[5]بندر- شوراب'!D79</f>
         <v>3900</v>
@@ -3931,7 +3896,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f>'[5]بندر- شوراب'!D80</f>
         <v>3800</v>
@@ -3943,7 +3908,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>'[5]بندر- شوراب'!D81</f>
         <v>3700</v>
@@ -3955,7 +3920,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>'[5]بندر- شوراب'!D82</f>
         <v>3600</v>
@@ -3967,7 +3932,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f>'[5]بندر- شوراب'!D83</f>
         <v>1120</v>
@@ -3979,7 +3944,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f>'[5]بندر- شوراب'!D84</f>
         <v>1120</v>
@@ -3991,7 +3956,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f>'[5]بندر- شوراب'!D85</f>
         <v>760</v>
@@ -4003,7 +3968,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f>'[5]بندر- شوراب'!D86</f>
         <v>760</v>
@@ -4015,7 +3980,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>'[5]بندر- شوراب'!D87</f>
         <v>380</v>
@@ -4027,7 +3992,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f>'[5]بندر- شوراب'!D88</f>
         <v>380</v>
@@ -4039,7 +4004,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f>'[5]بندر- شوراب'!D89</f>
         <v>0</v>
